--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Lamp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.388571333333333</v>
+        <v>0.052706</v>
       </c>
       <c r="H2">
-        <v>4.165714</v>
+        <v>0.158118</v>
       </c>
       <c r="I2">
-        <v>0.3523526610542378</v>
+        <v>0.0131977395622021</v>
       </c>
       <c r="J2">
-        <v>0.3523526610542378</v>
+        <v>0.0131977395622021</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>108.170325</v>
+        <v>32.130737</v>
       </c>
       <c r="N2">
-        <v>324.510975</v>
+        <v>96.392211</v>
       </c>
       <c r="O2">
-        <v>0.3858768734748398</v>
+        <v>0.1572847769351211</v>
       </c>
       <c r="P2">
-        <v>0.3858768734748398</v>
+        <v>0.1572847769351211</v>
       </c>
       <c r="Q2">
-        <v>150.20221241235</v>
+        <v>1.693482624322</v>
       </c>
       <c r="R2">
-        <v>1351.81991171115</v>
+        <v>15.241343618898</v>
       </c>
       <c r="S2">
-        <v>0.1359647432081492</v>
+        <v>0.00207580352308878</v>
       </c>
       <c r="T2">
-        <v>0.1359647432081492</v>
+        <v>0.00207580352308878</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.388571333333333</v>
+        <v>0.052706</v>
       </c>
       <c r="H3">
-        <v>4.165714</v>
+        <v>0.158118</v>
       </c>
       <c r="I3">
-        <v>0.3523526610542378</v>
+        <v>0.0131977395622021</v>
       </c>
       <c r="J3">
-        <v>0.3523526610542378</v>
+        <v>0.0131977395622021</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>373.761398</v>
       </c>
       <c r="O3">
-        <v>0.4444406839732469</v>
+        <v>0.6098727013470931</v>
       </c>
       <c r="P3">
-        <v>0.4444406839732469</v>
+        <v>0.6098727013470933</v>
       </c>
       <c r="Q3">
-        <v>172.9981209231302</v>
+        <v>6.566489414329333</v>
       </c>
       <c r="R3">
-        <v>1556.983088308172</v>
+        <v>59.098404728964</v>
       </c>
       <c r="S3">
-        <v>0.1565998576787391</v>
+        <v>0.0080489410784756</v>
       </c>
       <c r="T3">
-        <v>0.1565998576787391</v>
+        <v>0.008048941078475601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.388571333333333</v>
+        <v>0.052706</v>
       </c>
       <c r="H4">
-        <v>4.165714</v>
+        <v>0.158118</v>
       </c>
       <c r="I4">
-        <v>0.3523526610542378</v>
+        <v>0.0131977395622021</v>
       </c>
       <c r="J4">
-        <v>0.3523526610542378</v>
+        <v>0.0131977395622021</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>142.697888</v>
       </c>
       <c r="O4">
-        <v>0.1696824425519133</v>
+        <v>0.2328425217177857</v>
       </c>
       <c r="P4">
-        <v>0.1696824425519133</v>
+        <v>0.2328425217177857</v>
       </c>
       <c r="Q4">
-        <v>66.0487322013369</v>
+        <v>2.507011628309334</v>
       </c>
       <c r="R4">
-        <v>594.4385898120321</v>
+        <v>22.563104654784</v>
       </c>
       <c r="S4">
-        <v>0.05978806016734948</v>
+        <v>0.003072994960637724</v>
       </c>
       <c r="T4">
-        <v>0.05978806016734948</v>
+        <v>0.003072994960637724</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.552285333333333</v>
+        <v>1.388571333333333</v>
       </c>
       <c r="H5">
-        <v>7.656855999999999</v>
+        <v>4.165713999999999</v>
       </c>
       <c r="I5">
-        <v>0.6476473389457622</v>
+        <v>0.347702402399595</v>
       </c>
       <c r="J5">
-        <v>0.6476473389457622</v>
+        <v>0.347702402399595</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>108.170325</v>
+        <v>32.130737</v>
       </c>
       <c r="N5">
-        <v>324.510975</v>
+        <v>96.392211</v>
       </c>
       <c r="O5">
-        <v>0.3858768734748398</v>
+        <v>0.1572847769351211</v>
       </c>
       <c r="P5">
-        <v>0.3858768734748398</v>
+        <v>0.1572847769351211</v>
       </c>
       <c r="Q5">
-        <v>276.0815339994</v>
+        <v>44.61582031707267</v>
       </c>
       <c r="R5">
-        <v>2484.7338059946</v>
+        <v>401.542382853654</v>
       </c>
       <c r="S5">
-        <v>0.2499121302666906</v>
+        <v>0.05468829480122601</v>
       </c>
       <c r="T5">
-        <v>0.2499121302666906</v>
+        <v>0.05468829480122601</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.552285333333333</v>
+        <v>1.388571333333333</v>
       </c>
       <c r="H6">
-        <v>7.656855999999999</v>
+        <v>4.165713999999999</v>
       </c>
       <c r="I6">
-        <v>0.6476473389457622</v>
+        <v>0.347702402399595</v>
       </c>
       <c r="J6">
-        <v>0.6476473389457622</v>
+        <v>0.347702402399595</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>373.761398</v>
       </c>
       <c r="O6">
-        <v>0.4444406839732469</v>
+        <v>0.6098727013470931</v>
       </c>
       <c r="P6">
-        <v>0.4444406839732469</v>
+        <v>0.6098727013470933</v>
       </c>
       <c r="Q6">
-        <v>317.9819114271875</v>
+        <v>172.9981209231302</v>
       </c>
       <c r="R6">
-        <v>2861.837202844687</v>
+        <v>1556.983088308172</v>
       </c>
       <c r="S6">
-        <v>0.2878408262945079</v>
+        <v>0.212054203416315</v>
       </c>
       <c r="T6">
-        <v>0.2878408262945078</v>
+        <v>0.2120542034163151</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,14 +829,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.552285333333333</v>
+        <v>1.388571333333333</v>
       </c>
       <c r="H7">
-        <v>7.656855999999999</v>
+        <v>4.165713999999999</v>
       </c>
       <c r="I7">
-        <v>0.6476473389457622</v>
+        <v>0.347702402399595</v>
       </c>
       <c r="J7">
-        <v>0.6476473389457622</v>
+        <v>0.347702402399595</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,208 @@
         <v>142.697888</v>
       </c>
       <c r="O7">
-        <v>0.1696824425519133</v>
+        <v>0.2328425217177857</v>
       </c>
       <c r="P7">
-        <v>0.1696824425519133</v>
+        <v>0.2328425217177857</v>
       </c>
       <c r="Q7">
+        <v>66.04873220133689</v>
+      </c>
+      <c r="R7">
+        <v>594.438589812032</v>
+      </c>
+      <c r="S7">
+        <v>0.08095990418205398</v>
+      </c>
+      <c r="T7">
+        <v>0.08095990418205398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.552285333333333</v>
+      </c>
+      <c r="H8">
+        <v>7.656856</v>
+      </c>
+      <c r="I8">
+        <v>0.6390998580382028</v>
+      </c>
+      <c r="J8">
+        <v>0.6390998580382028</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>32.130737</v>
+      </c>
+      <c r="N8">
+        <v>96.392211</v>
+      </c>
+      <c r="O8">
+        <v>0.1572847769351211</v>
+      </c>
+      <c r="P8">
+        <v>0.1572847769351211</v>
+      </c>
+      <c r="Q8">
+        <v>82.00680879429068</v>
+      </c>
+      <c r="R8">
+        <v>738.0612791486161</v>
+      </c>
+      <c r="S8">
+        <v>0.1005206786108063</v>
+      </c>
+      <c r="T8">
+        <v>0.1005206786108063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.552285333333333</v>
+      </c>
+      <c r="H9">
+        <v>7.656856</v>
+      </c>
+      <c r="I9">
+        <v>0.6390998580382028</v>
+      </c>
+      <c r="J9">
+        <v>0.6390998580382028</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>124.5871326666667</v>
+      </c>
+      <c r="N9">
+        <v>373.761398</v>
+      </c>
+      <c r="O9">
+        <v>0.6098727013470931</v>
+      </c>
+      <c r="P9">
+        <v>0.6098727013470933</v>
+      </c>
+      <c r="Q9">
+        <v>317.9819114271875</v>
+      </c>
+      <c r="R9">
+        <v>2861.837202844688</v>
+      </c>
+      <c r="S9">
+        <v>0.3897695568523025</v>
+      </c>
+      <c r="T9">
+        <v>0.3897695568523026</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.552285333333333</v>
+      </c>
+      <c r="H10">
+        <v>7.656856</v>
+      </c>
+      <c r="I10">
+        <v>0.6390998580382028</v>
+      </c>
+      <c r="J10">
+        <v>0.6390998580382028</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>47.56596266666667</v>
+      </c>
+      <c r="N10">
+        <v>142.697888</v>
+      </c>
+      <c r="O10">
+        <v>0.2328425217177857</v>
+      </c>
+      <c r="P10">
+        <v>0.2328425217177857</v>
+      </c>
+      <c r="Q10">
         <v>121.4019088800142</v>
       </c>
-      <c r="R7">
+      <c r="R10">
         <v>1092.617179920128</v>
       </c>
-      <c r="S7">
-        <v>0.1098943823845638</v>
-      </c>
-      <c r="T7">
-        <v>0.1098943823845638</v>
+      <c r="S10">
+        <v>0.148809622575094</v>
+      </c>
+      <c r="T10">
+        <v>0.148809622575094</v>
       </c>
     </row>
   </sheetData>
